--- a/CO-ISSC/Data/IA Regulation Taxonomy.xlsx
+++ b/CO-ISSC/Data/IA Regulation Taxonomy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\NantesCurricula\Intership\Aurelien stage Juillet2023\CO-ISSC\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9506f01639dac40c/NantesCurricula/Intership/Aurelien stage Juillet2023/CO-ISSC/CO-ISSC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3279C2D8-5717-4A5F-AEAA-4D3819A17AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3279C2D8-5717-4A5F-AEAA-4D3819A17AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9105FDE4-5E10-4BCB-B221-B07EE72AAD6F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3205,14 +3205,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y981"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A877" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F888" sqref="F888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5855,7 +5855,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>558</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>85</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="13.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A191" s="24" t="s">
         <v>912</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>141</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>562</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>717</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>36</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>171</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>262</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>300</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>301</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>347</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>352</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>390</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>391</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>392</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>542</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>561</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>563</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>564</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>628</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>732</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="s">
         <v>269</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="17" t="s">
         <v>271</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>646</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>409</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>433</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>107</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="13.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A217" s="24" t="s">
         <v>661</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>820</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>833</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>878</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>435</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>61</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>105</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>116</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>127</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>187</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="13.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>226</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="13.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>239</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>361</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>399</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>434</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>436</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>448</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>504</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>537</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>543</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>610</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>660</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>676</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>711</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>797</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>805</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>807</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>870</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>871</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>877</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>494</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>515</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>383</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>186</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>420</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>268</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
         <v>311</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>632</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>728</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
         <v>16</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="13.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>18</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="13.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>19</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>26</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>277</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>291</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>293</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
         <v>295</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>320</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
         <v>342</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>344</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>360</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>371</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>373</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>411</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>425</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>594</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>313</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>505</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>314</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
         <v>545</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>601</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>603</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
         <v>629</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>652</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
         <v>664</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>675</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>726</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>752</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>757</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>760</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>773</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
         <v>774</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>817</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
         <v>822</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
         <v>884</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
         <v>889</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="13.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A293" s="15" t="s">
         <v>263</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="16" t="s">
         <v>273</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="16" t="s">
         <v>439</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="16" t="s">
         <v>150</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="16" t="s">
         <v>117</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="16" t="s">
         <v>631</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="16" t="s">
         <v>278</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
         <v>484</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
         <v>855</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
         <v>66</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>23</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>132</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
         <v>177</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
         <v>270</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
         <v>511</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="16" t="s">
         <v>905</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
         <v>110</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>118</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
         <v>151</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
         <v>166</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
         <v>182</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
         <v>230</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
         <v>248</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>254</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
         <v>265</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
         <v>266</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
         <v>279</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
         <v>510</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>573</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>615</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>635</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>683</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
         <v>457</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
         <v>152</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
         <v>76</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>98</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
         <v>103</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
         <v>142</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
         <v>163</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
         <v>243</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
         <v>673</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
         <v>891</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
         <v>611</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
         <v>312</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
         <v>621</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
         <v>214</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
         <v>224</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
         <v>414</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
         <v>493</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
         <v>206</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
         <v>290</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
         <v>292</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
         <v>662</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
         <v>716</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
         <v>860</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
         <v>359</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
         <v>349</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
         <v>723</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
         <v>890</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
         <v>627</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
         <v>702</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
         <v>844</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
         <v>888</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
         <v>323</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
         <v>306</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
         <v>203</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
         <v>33</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>34</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
         <v>41</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>51</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
         <v>75</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
         <v>154</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>161</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="13.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>191</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>220</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
         <v>221</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
         <v>222</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
         <v>223</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>256</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
         <v>284</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
         <v>286</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
         <v>297</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
         <v>299</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
         <v>310</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
         <v>324</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
         <v>350</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
         <v>351</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
         <v>364</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
         <v>367</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
         <v>382</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
         <v>397</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>459</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
         <v>463</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
         <v>466</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="19" t="s">
         <v>497</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>498</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
         <v>499</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>502</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
         <v>540</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
         <v>554</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
         <v>555</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
         <v>565</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
         <v>574</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
         <v>578</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
         <v>581</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
         <v>583</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
         <v>586</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
         <v>589</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
         <v>595</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
         <v>599</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
         <v>679</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
         <v>713</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
         <v>714</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
         <v>715</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
         <v>718</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
         <v>719</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
         <v>721</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
         <v>754</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
         <v>766</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
         <v>771</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
         <v>811</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
         <v>818</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
         <v>823</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
         <v>843</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="19" t="s">
         <v>846</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
         <v>848</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="6" t="s">
         <v>626</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="6" t="s">
         <v>321</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="6" t="s">
         <v>322</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
         <v>343</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
         <v>500</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
         <v>501</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
         <v>576</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="6" t="s">
         <v>585</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="6" t="s">
         <v>590</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
         <v>617</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
         <v>720</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="6" t="s">
         <v>742</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
         <v>910</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
         <v>730</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="6" t="s">
         <v>722</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="6" t="s">
         <v>559</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="6" t="s">
         <v>731</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="13" t="s">
         <v>167</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="16" t="s">
         <v>847</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="16" t="s">
         <v>849</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>919</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
         <v>160</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
         <v>50</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
         <v>566</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
         <v>30</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
         <v>158</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
         <v>159</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
         <v>255</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
         <v>296</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
         <v>480</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
         <v>584</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
         <v>798</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
         <v>800</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
         <v>863</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="9" t="s">
         <v>692</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
         <v>471</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="6" t="s">
         <v>82</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="18" t="s">
         <v>280</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="6" t="s">
         <v>485</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="6" t="s">
         <v>688</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="13.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A459" s="7" t="s">
         <v>416</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="13" t="s">
         <v>418</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="23" t="s">
         <v>813</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
         <v>845</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="s">
         <v>70</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="6" t="s">
         <v>385</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="6" t="s">
         <v>575</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
         <v>579</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
         <v>580</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="23" t="s">
         <v>896</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="23" t="s">
         <v>441</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="23" t="s">
         <v>897</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="23" t="s">
         <v>899</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
         <v>795</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="6" t="s">
         <v>56</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="6" t="s">
         <v>218</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="6" t="s">
         <v>317</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="6" t="s">
         <v>854</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>96</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
         <v>419</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
         <v>450</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
         <v>706</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="481" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="6" t="s">
         <v>708</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="482" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="6" t="s">
         <v>856</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="483" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="6" t="s">
         <v>57</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="484" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
         <v>246</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="485" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="6" t="s">
         <v>264</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="486" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="6" t="s">
         <v>460</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="487" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="6" t="s">
         <v>507</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="488" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="6" t="s">
         <v>527</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="489" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="6" t="s">
         <v>705</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="490" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="6" t="s">
         <v>858</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="491" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="6" t="s">
         <v>618</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="492" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="16" t="s">
         <v>42</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="493" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="6" t="s">
         <v>482</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="494" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="6" t="s">
         <v>90</v>
       </c>
@@ -10160,7 +10160,7 @@
       <c r="X494" s="16"/>
       <c r="Y494" s="16"/>
     </row>
-    <row r="495" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="6" t="s">
         <v>475</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="496" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="6" t="s">
         <v>184</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="6" t="s">
         <v>776</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="6" t="s">
         <v>89</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="6" t="s">
         <v>115</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="6" t="s">
         <v>245</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="6" t="s">
         <v>247</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="6" t="s">
         <v>267</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="6" t="s">
         <v>272</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="6" t="s">
         <v>274</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="6" t="s">
         <v>346</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="6" t="s">
         <v>423</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="6" t="s">
         <v>588</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="6" t="s">
         <v>593</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="6" t="s">
         <v>616</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="6" t="s">
         <v>666</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="6" t="s">
         <v>895</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="6" t="s">
         <v>782</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="6" t="s">
         <v>850</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="6" t="s">
         <v>861</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="6" t="s">
         <v>866</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="6" t="s">
         <v>148</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="6" t="s">
         <v>665</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="6" t="s">
         <v>836</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="6" t="s">
         <v>868</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="6" t="s">
         <v>336</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="6" t="s">
         <v>387</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="6" t="s">
         <v>400</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="6" t="s">
         <v>695</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="6" t="s">
         <v>759</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="6" t="s">
         <v>852</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="6" t="s">
         <v>149</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="19" t="s">
         <v>803</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="6" t="s">
         <v>8</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="6" t="s">
         <v>131</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="6" t="s">
         <v>369</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="6" t="s">
         <v>415</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="6" t="s">
         <v>54</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="6" t="s">
         <v>653</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="6" t="s">
         <v>144</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="6" t="s">
         <v>519</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="6" t="s">
         <v>638</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="6" t="s">
         <v>428</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="6" t="s">
         <v>698</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="6" t="s">
         <v>821</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="6" t="s">
         <v>68</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="6" t="s">
         <v>120</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="6" t="s">
         <v>48</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="6" t="s">
         <v>52</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="6" t="s">
         <v>228</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="6" t="s">
         <v>303</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="6" t="s">
         <v>404</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="6" t="s">
         <v>478</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="6" t="s">
         <v>518</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="6" t="s">
         <v>612</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="6" t="s">
         <v>699</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="6" t="s">
         <v>179</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="6" t="s">
         <v>201</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="6" t="s">
         <v>403</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="6" t="s">
         <v>372</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="6" t="s">
         <v>6</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="6" t="s">
         <v>7</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="6" t="s">
         <v>10</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="6" t="s">
         <v>11</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="6" t="s">
         <v>20</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="6" t="s">
         <v>27</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="6" t="s">
         <v>28</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="6" t="s">
         <v>47</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="6" t="s">
         <v>69</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="6" t="s">
         <v>112</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="6" t="s">
         <v>124</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="6" t="s">
         <v>128</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="6" t="s">
         <v>130</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="6" t="s">
         <v>136</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="6" t="s">
         <v>137</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="6" t="s">
         <v>139</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="6" t="s">
         <v>169</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="6" t="s">
         <v>170</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="6" t="s">
         <v>219</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="6" t="s">
         <v>229</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="6" t="s">
         <v>234</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="6" t="s">
         <v>235</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="6" t="s">
         <v>252</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="6" t="s">
         <v>276</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="6" t="s">
         <v>339</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="6" t="s">
         <v>341</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="6" t="s">
         <v>345</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="6" t="s">
         <v>355</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="6" t="s">
         <v>375</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="6" t="s">
         <v>388</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="6" t="s">
         <v>430</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="6" t="s">
         <v>477</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="6" t="s">
         <v>520</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="6" t="s">
         <v>522</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="6" t="s">
         <v>523</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="6" t="s">
         <v>524</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="6" t="s">
         <v>568</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="6" t="s">
         <v>570</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="6" t="s">
         <v>600</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="6" t="s">
         <v>608</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="6" t="s">
         <v>609</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="6" t="s">
         <v>620</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="6" t="s">
         <v>625</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="6" t="s">
         <v>637</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="6" t="s">
         <v>640</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="6" t="s">
         <v>641</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="6" t="s">
         <v>657</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="6" t="s">
         <v>667</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="6" t="s">
         <v>668</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="6" t="s">
         <v>669</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="6" t="s">
         <v>671</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>690</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="6" t="s">
         <v>693</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="6" t="s">
         <v>700</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="6" t="s">
         <v>701</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="6" t="s">
         <v>710</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="6" t="s">
         <v>733</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="6" t="s">
         <v>735</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="6" t="s">
         <v>748</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="6" t="s">
         <v>749</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="6" t="s">
         <v>763</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="6" t="s">
         <v>764</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="6" t="s">
         <v>786</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="6" t="s">
         <v>788</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="6" t="s">
         <v>835</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="6" t="s">
         <v>837</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="6" t="s">
         <v>839</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="6" t="s">
         <v>840</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="6" t="s">
         <v>842</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="6" t="s">
         <v>872</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="6" t="s">
         <v>444</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="6" t="s">
         <v>779</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="6" t="s">
         <v>281</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="6" t="s">
         <v>395</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="6" t="s">
         <v>178</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="6" t="s">
         <v>551</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="6" t="s">
         <v>684</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="6" t="s">
         <v>827</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="6" t="s">
         <v>881</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="6" t="s">
         <v>329</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="6" t="s">
         <v>181</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="6" t="s">
         <v>304</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="6" t="s">
         <v>370</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="6" t="s">
         <v>140</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="6" t="s">
         <v>237</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="6" t="s">
         <v>327</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="6" t="s">
         <v>421</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="6" t="s">
         <v>604</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="6" t="s">
         <v>251</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="6" t="s">
         <v>253</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="6" t="s">
         <v>328</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="6" t="s">
         <v>335</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="6" t="s">
         <v>394</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="6" t="s">
         <v>532</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="6" t="s">
         <v>557</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="6" t="s">
         <v>569</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="6" t="s">
         <v>577</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="6" t="s">
         <v>582</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="6" t="s">
         <v>597</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="6" t="s">
         <v>697</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="6" t="s">
         <v>734</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="6" t="s">
         <v>736</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="657" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="6" t="s">
         <v>765</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="658" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="6" t="s">
         <v>853</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="659" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="23" t="s">
         <v>911</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="660" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="6" t="s">
         <v>114</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="661" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="6" t="s">
         <v>113</v>
       </c>
@@ -12517,7 +12517,7 @@
       <c r="X661" s="23"/>
       <c r="Y661" s="23"/>
     </row>
-    <row r="662" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="6" t="s">
         <v>767</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="663" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="6" t="s">
         <v>512</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="664" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="6" t="s">
         <v>275</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="665" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="6" t="s">
         <v>340</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="666" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="6" t="s">
         <v>691</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="667" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="6" t="s">
         <v>756</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="668" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="6" t="s">
         <v>770</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="669" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="16" t="s">
         <v>526</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="671" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="16" t="s">
         <v>920</v>
       </c>
@@ -12678,7 +12678,7 @@
       <c r="X671" s="16"/>
       <c r="Y671" s="16"/>
     </row>
-    <row r="672" spans="1:25" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
         <v>831</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="6" t="s">
         <v>417</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="6" t="s">
         <v>859</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="6" t="s">
         <v>874</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="6" t="s">
         <v>233</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="6" t="s">
         <v>792</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="6" t="s">
         <v>829</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="6" t="s">
         <v>830</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="6" t="s">
         <v>196</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="6" t="s">
         <v>212</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="6" t="s">
         <v>108</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="6" t="s">
         <v>119</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="6" t="s">
         <v>162</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="6" t="s">
         <v>231</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="6" t="s">
         <v>240</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="19" t="s">
         <v>401</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="6" t="s">
         <v>461</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="6" t="s">
         <v>548</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="6" t="s">
         <v>232</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="6" t="s">
         <v>410</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="6" t="s">
         <v>422</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="6" t="s">
         <v>862</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="16" t="s">
         <v>334</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="6" t="s">
         <v>192</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="6" t="s">
         <v>216</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="6" t="s">
         <v>121</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="6" t="s">
         <v>123</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="6" t="s">
         <v>363</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="700" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="6" t="s">
         <v>541</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="701" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="6" t="s">
         <v>348</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="702" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="6" t="s">
         <v>639</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="703" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="6" t="s">
         <v>257</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="6" t="s">
         <v>614</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="705" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="6" t="s">
         <v>682</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="6" t="s">
         <v>816</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="707" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="17" t="s">
         <v>316</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="709" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="6" t="s">
         <v>828</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="710" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="6" t="s">
         <v>357</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="711" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="6" t="s">
         <v>204</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="6" t="s">
         <v>332</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="6" t="s">
         <v>15</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="714" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="6" t="s">
         <v>29</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="715" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="6" t="s">
         <v>49</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="6" t="s">
         <v>81</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="717" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
         <v>95</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="718" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="6" t="s">
         <v>198</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="6" t="s">
         <v>379</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="720" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="6" t="s">
         <v>431</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="721" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="6" t="s">
         <v>465</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="722" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="6" t="s">
         <v>472</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="723" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="6" t="s">
         <v>503</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="724" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="6" t="s">
         <v>509</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="725" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="6" t="s">
         <v>571</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="726" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="6" t="s">
         <v>619</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="727" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="6" t="s">
         <v>758</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="728" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="6" t="s">
         <v>787</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="729" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="6" t="s">
         <v>815</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="730" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="6" t="s">
         <v>838</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="731" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="6" t="s">
         <v>875</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="732" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="6" t="s">
         <v>25</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="733" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="6" t="s">
         <v>864</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="734" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="6" t="s">
         <v>893</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="735" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="6" t="s">
         <v>389</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="6" t="s">
         <v>164</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="6" t="s">
         <v>495</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="6" t="s">
         <v>707</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="739" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="6" t="s">
         <v>4</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="740" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="6" t="s">
         <v>9</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="741" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="6" t="s">
         <v>14</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="742" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="6" t="s">
         <v>22</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="743" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="6" t="s">
         <v>35</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="744" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="6" t="s">
         <v>67</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="745" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="6" t="s">
         <v>79</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="746" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="6" t="s">
         <v>80</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="747" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="6" t="s">
         <v>87</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="748" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="6" t="s">
         <v>91</v>
       </c>
@@ -13756,7 +13756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="749" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="6" t="s">
         <v>93</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="750" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="6" t="s">
         <v>94</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="751" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="6" t="s">
         <v>99</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="6" t="s">
         <v>100</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="753" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="6" t="s">
         <v>126</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="6" t="s">
         <v>129</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="6" t="s">
         <v>133</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="6" t="s">
         <v>135</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="6" t="s">
         <v>147</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="758" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="6" t="s">
         <v>195</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="6" t="s">
         <v>197</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="760" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="6" t="s">
         <v>225</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="761" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="6" t="s">
         <v>227</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="6" t="s">
         <v>250</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="763" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="6" t="s">
         <v>282</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="764" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="6" t="s">
         <v>298</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="765" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="6" t="s">
         <v>302</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="766" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="6" t="s">
         <v>305</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="767" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="6" t="s">
         <v>308</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="6" t="s">
         <v>309</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="6" t="s">
         <v>315</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="6" t="s">
         <v>319</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="6" t="s">
         <v>325</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="6" t="s">
         <v>326</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="6" t="s">
         <v>337</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="6" t="s">
         <v>356</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="6" t="s">
         <v>365</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="6" t="s">
         <v>376</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="6" t="s">
         <v>378</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="6" t="s">
         <v>381</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="6" t="s">
         <v>396</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="6" t="s">
         <v>405</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="6" t="s">
         <v>406</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="6" t="s">
         <v>413</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="6" t="s">
         <v>426</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="6" t="s">
         <v>432</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="785" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="6" t="s">
         <v>437</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="786" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="6" t="s">
         <v>467</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="787" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="6" t="s">
         <v>479</v>
       </c>
@@ -14302,7 +14302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="788" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="6" t="s">
         <v>486</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="789" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="6" t="s">
         <v>488</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="790" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="6" t="s">
         <v>516</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="791" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="6" t="s">
         <v>528</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="792" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="6" t="s">
         <v>531</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="793" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="6" t="s">
         <v>534</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="794" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="6" t="s">
         <v>538</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="795" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="6" t="s">
         <v>544</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="796" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="6" t="s">
         <v>546</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="797" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="6" t="s">
         <v>547</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="798" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="6" t="s">
         <v>549</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="6" t="s">
         <v>550</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="6" t="s">
         <v>553</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="6" t="s">
         <v>567</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="6" t="s">
         <v>572</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="6" t="s">
         <v>591</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="6" t="s">
         <v>596</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="6" t="s">
         <v>598</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="6" t="s">
         <v>605</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="6" t="s">
         <v>606</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="808" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="6" t="s">
         <v>636</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="6" t="s">
         <v>642</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="6" t="s">
         <v>643</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="811" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="6" t="s">
         <v>644</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="812" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="6" t="s">
         <v>648</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="813" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="6" t="s">
         <v>686</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="814" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="6" t="s">
         <v>704</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="815" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="6" t="s">
         <v>725</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="816" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="6" t="s">
         <v>727</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="817" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="6" t="s">
         <v>740</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="818" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="6" t="s">
         <v>741</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="819" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="6" t="s">
         <v>743</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="820" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="6" t="s">
         <v>744</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="821" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="6" t="s">
         <v>746</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="822" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="6" t="s">
         <v>750</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="823" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="6" t="s">
         <v>751</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="824" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="6" t="s">
         <v>753</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="825" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="6" t="s">
         <v>761</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="826" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="6" t="s">
         <v>762</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="827" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="6" t="s">
         <v>791</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="828" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="6" t="s">
         <v>824</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="829" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="6" t="s">
         <v>841</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="830" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="6" t="s">
         <v>867</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="831" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="6" t="s">
         <v>869</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="6" t="s">
         <v>876</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="833" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="6" t="s">
         <v>882</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="834" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="6" t="s">
         <v>883</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="835" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="17" t="s">
         <v>489</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="836" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="16" t="s">
         <v>552</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="4" t="s">
         <v>386</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="838" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="6" t="s">
         <v>145</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="839" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="6" t="s">
         <v>464</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="840" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="6" t="s">
         <v>535</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="841" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="6" t="s">
         <v>630</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="842" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="6" t="s">
         <v>696</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="843" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="6" t="s">
         <v>451</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="844" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="6" t="s">
         <v>259</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="11" t="s">
         <v>508</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="846" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="11" t="s">
         <v>670</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="847" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="11" t="s">
         <v>633</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="848" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="11" t="s">
         <v>188</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="849" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="11" t="s">
         <v>513</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="850" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="11" t="s">
         <v>453</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="851" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="11" t="s">
         <v>427</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="852" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="11" t="s">
         <v>156</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="853" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="11" t="s">
         <v>452</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="854" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="11" t="s">
         <v>517</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="855" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="11" t="s">
         <v>165</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="856" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="11" t="s">
         <v>202</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="857" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="11" t="s">
         <v>456</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="858" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="11" t="s">
         <v>778</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="859" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="11" t="s">
         <v>857</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="860" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A860" s="11" t="s">
         <v>111</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="861" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A861" s="11" t="s">
         <v>487</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="862" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A862" s="11" t="s">
         <v>261</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="863" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A863" s="11" t="s">
         <v>429</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="864" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A864" s="11" t="s">
         <v>454</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="865" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A865" s="11" t="s">
         <v>536</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="866" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A866" s="11" t="s">
         <v>592</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="867" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A867" s="11" t="s">
         <v>607</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="868" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A868" s="11" t="s">
         <v>745</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="869" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A869" s="11" t="s">
         <v>851</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="870" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A870" s="11" t="s">
         <v>38</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="871" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A871" s="11" t="s">
         <v>40</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="872" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A872" s="11" t="s">
         <v>46</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="873" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A873" s="11" t="s">
         <v>157</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="874" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A874" s="11" t="s">
         <v>183</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="875" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A875" s="11" t="s">
         <v>238</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="876" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A876" s="11" t="s">
         <v>440</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="877" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A877" s="11" t="s">
         <v>442</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="878" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A878" s="11" t="s">
         <v>443</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A879" s="11" t="s">
         <v>445</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="880" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A880" s="11" t="s">
         <v>455</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="881" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A881" s="11" t="s">
         <v>458</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="882" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A882" s="11" t="s">
         <v>514</v>
       </c>
@@ -15632,7 +15632,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="883" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A883" s="11" t="s">
         <v>634</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="884" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A884" s="20" t="s">
         <v>924</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="885" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A885" s="11" t="s">
         <v>462</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="886" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A886" s="11" t="s">
         <v>109</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="887" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A887" s="21" t="s">
         <v>909</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="888" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A888" s="11" t="s">
         <v>283</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="889" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A889" s="11" t="s">
         <v>285</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="890" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A890" s="11" t="s">
         <v>288</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="891" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A891" s="11" t="s">
         <v>624</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="892" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A892" s="11" t="s">
         <v>663</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="893" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A893" s="11" t="s">
         <v>885</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="894" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A894" s="11" t="s">
         <v>886</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="895" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A895" s="11" t="s">
         <v>887</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="896" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
         <v>106</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="897" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A897" s="16" t="s">
         <v>491</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="898" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A898" s="16" t="s">
         <v>826</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="899" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A899" s="2" t="s">
         <v>917</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="900" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A900" s="6" t="s">
         <v>918</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="901" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
         <v>194</v>
       </c>
@@ -16133,13 +16133,7 @@
     <row r="980" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="981" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:D901" xr:uid="{00000000-0001-0000-0600-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="AnythingAI"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D901" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D11:D69 C293:C334 C335:D347 C492:D492 C493:C669 C214:D246" xr:uid="{00000000-0002-0000-0600-000000000000}">
